--- a/public/upload/users.xlsx
+++ b/public/upload/users.xlsx
@@ -20,7 +20,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Роль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Торговая сеть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Магазин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Город</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адрес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фамилия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пароль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телефон</t>
+  </si>
   <si>
     <t xml:space="preserve">Руководитель торговой сети</t>
   </si>
@@ -34,7 +64,7 @@
     <t xml:space="preserve">Моцарт</t>
   </si>
   <si>
-    <t xml:space="preserve">maldini8@ukr.net</t>
+    <t xml:space="preserve">test2@ukr.net</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
@@ -43,10 +73,16 @@
     <t xml:space="preserve">Сотрудник магазина</t>
   </si>
   <si>
-    <t xml:space="preserve">Allo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allo-1</t>
+    <t xml:space="preserve">Tera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tera-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Херсон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Залаэгерсег, 18 (ТЦ Фабрика)</t>
   </si>
   <si>
     <t xml:space="preserve">Алена</t>
@@ -55,10 +91,7 @@
     <t xml:space="preserve">Цокотай</t>
   </si>
   <si>
-    <t xml:space="preserve">dodio@mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maldini2@ukr.netr</t>
+    <t xml:space="preserve">test@mail.com</t>
   </si>
 </sst>
 </file>
@@ -68,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -91,19 +124,19 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,16 +173,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,6 +203,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -170,101 +271,109 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="n">
-        <v>380935147299</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>380935146705</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>380930000000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>380935146705</v>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="maldini2@ukr.netr"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
